--- a/Data/tables/resources_info.xlsx
+++ b/Data/tables/resources_info.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,22 +422,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Resource</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Event Count</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Unique Activities</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Activities</t>
         </is>
@@ -494,18 +482,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hw_1</t>
+          <t>mm_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522</v>
+        <v>381</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/hw/human_review</t>
+          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
         </is>
       </c>
     </row>
@@ -530,36 +518,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dm_2</t>
+          <t>pm_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
+          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ov_2</t>
+          <t>hw_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>330</v>
+        <v>522</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/ov/burn</t>
+          <t>/hw/human_review</t>
         </is>
       </c>
     </row>
@@ -584,72 +572,72 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pm_1</t>
+          <t>sm_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>204</v>
+        <v>378</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/pm/punch_gill, /pm/punch_recesses, /pm/punch_ribbing</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sm_2</t>
+          <t>dm_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/dm/cylindrical_drill, /dm/drill, /dm/lower</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sm_1</t>
+          <t>wt_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>378</v>
+        <v>447</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/sm/sort, /sm/transport</t>
+          <t>/wt/pick_up_and_transport</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mm_2</t>
+          <t>ov_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/mm/deburr, /mm/drill, /mm/mill, /mm/transport_from_to</t>
+          <t>/ov/burn</t>
         </is>
       </c>
     </row>
@@ -674,54 +662,54 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hbw_2</t>
+          <t>sm_2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1581</v>
+        <v>309</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/hbw/store_empty_bucket, /hbw/unload</t>
+          <t>/sm/sort, /sm/transport</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>vgr_2</t>
+          <t>hbw_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>885</v>
+        <v>1581</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/vgr/pick_up_and_transport</t>
+          <t>/hbw/store_empty_bucket, /hbw/unload</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>wt_1</t>
+          <t>vgr_2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>447</v>
+        <v>885</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/wt/pick_up_and_transport</t>
+          <t>/vgr/pick_up_and_transport</t>
         </is>
       </c>
     </row>
